--- a/Definitiva.xlsx
+++ b/Definitiva.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willi\OneDrive\Documentos\Cálculo Integral\CI 2024 01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095FC62B-45A3-4E8D-BC1E-50FB7AA72449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED77320F-5D37-46F7-8C87-AA43D3801892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -725,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,7 +751,7 @@
     <col min="3" max="7" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -761,7 +774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -775,16 +788,20 @@
         <v>2.6</v>
       </c>
       <c r="E2">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.8</v>
+      </c>
+      <c r="H2">
+        <f>0.25*SUM(C2:F2)</f>
+        <v>3.7750000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -798,16 +815,20 @@
         <v>3.1</v>
       </c>
       <c r="E3">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1.7</v>
       </c>
       <c r="G3">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.9</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H52" si="0">0.25*SUM(C3:F3)</f>
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -821,16 +842,20 @@
         <v>0.3</v>
       </c>
       <c r="E4">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="F4">
         <v>0.8</v>
       </c>
       <c r="G4">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.8</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -852,8 +877,12 @@
       <c r="G5">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>1.175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -867,7 +896,7 @@
         <v>3.1</v>
       </c>
       <c r="E6">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>1.5</v>
@@ -875,8 +904,12 @@
       <c r="G6">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -890,16 +923,20 @@
         <v>1.4</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F7">
         <v>1.9</v>
       </c>
       <c r="G7">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.6</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>2.6250000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -913,16 +950,20 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E8">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="F8">
         <v>2.1</v>
       </c>
       <c r="G8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.2</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>3.1500000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -936,16 +977,20 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>2.6</v>
       </c>
       <c r="G9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -967,8 +1012,12 @@
       <c r="G10">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -990,8 +1039,12 @@
       <c r="G11">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1005,16 +1058,20 @@
         <v>2.4</v>
       </c>
       <c r="E12">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>2.5</v>
       </c>
       <c r="G12">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>3.1750000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1036,8 +1093,12 @@
       <c r="G13">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1057,10 +1118,14 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G14">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.8</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>2.8499999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1074,16 +1139,20 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="E15">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="F15">
         <v>1.7</v>
       </c>
       <c r="G15">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>3.0250000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1105,8 +1174,12 @@
       <c r="G16">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1120,16 +1193,20 @@
         <v>3.9</v>
       </c>
       <c r="E17">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="F17">
         <v>4.5999999999999996</v>
       </c>
       <c r="G17">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.6000000000000014</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>4.5750000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1143,16 +1220,20 @@
         <v>2</v>
       </c>
       <c r="E18">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="F18">
         <v>3.7</v>
       </c>
       <c r="G18">
-        <v>3.4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1166,16 +1247,20 @@
         <v>3.8</v>
       </c>
       <c r="E19">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="F19">
         <v>2.6</v>
       </c>
       <c r="G19">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.3</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -1189,16 +1274,20 @@
         <v>2.8</v>
       </c>
       <c r="E20">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="F20">
         <v>2.2000000000000002</v>
       </c>
       <c r="G20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.1</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -1220,8 +1309,12 @@
       <c r="G21">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -1243,8 +1336,12 @@
       <c r="G22">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>2.875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -1266,8 +1363,12 @@
       <c r="G23">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>3.8250000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -1289,8 +1390,12 @@
       <c r="G24">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
@@ -1312,8 +1417,12 @@
       <c r="G25">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>3.1750000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1327,16 +1436,20 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="E26">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1.6</v>
       </c>
       <c r="G26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.2</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
@@ -1350,16 +1463,20 @@
         <v>3.3</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="F27">
         <v>4.4000000000000004</v>
       </c>
       <c r="G27">
-        <v>3.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.1000000000000014</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>4.0500000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
@@ -1373,7 +1490,7 @@
         <v>3</v>
       </c>
       <c r="E28">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="F28">
         <v>2.7</v>
@@ -1381,8 +1498,12 @@
       <c r="G28">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>3.8250000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
@@ -1396,16 +1517,20 @@
         <v>1.7</v>
       </c>
       <c r="E29">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>3.2</v>
       </c>
       <c r="G29">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.2</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>3.1749999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -1427,8 +1552,12 @@
       <c r="G30">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>2.5250000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
@@ -1442,7 +1571,7 @@
         <v>4.3</v>
       </c>
       <c r="E31">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="F31">
         <v>4.8</v>
@@ -1450,8 +1579,12 @@
       <c r="G31">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>4.5250000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -1471,10 +1604,14 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.9</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>38</v>
       </c>
@@ -1488,16 +1625,20 @@
         <v>2.5</v>
       </c>
       <c r="E33">
-        <v>1.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F33">
         <v>2.5</v>
       </c>
       <c r="G33">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.9</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>2.9249999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
@@ -1517,10 +1658,14 @@
         <v>1.8</v>
       </c>
       <c r="G34">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.9</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
@@ -1542,8 +1687,12 @@
       <c r="G35">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>1.2250000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
@@ -1557,16 +1706,20 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <v>4.3</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="F36">
         <v>1.7</v>
       </c>
       <c r="G36">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.3</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
@@ -1580,16 +1733,20 @@
         <v>1.8</v>
       </c>
       <c r="E37">
-        <v>2.2999999999999998</v>
+        <v>2.5</v>
       </c>
       <c r="F37">
         <v>1.4</v>
       </c>
       <c r="G37">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.7</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>2.65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>43</v>
       </c>
@@ -1603,16 +1760,20 @@
         <v>3.6</v>
       </c>
       <c r="E38">
-        <v>4.0999999999999996</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="F38">
         <v>4.5</v>
       </c>
       <c r="G38">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
@@ -1634,8 +1795,12 @@
       <c r="G39">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>45</v>
       </c>
@@ -1655,10 +1820,14 @@
         <v>1.5</v>
       </c>
       <c r="G40">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.5</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>46</v>
       </c>
@@ -1672,7 +1841,7 @@
         <v>3.2</v>
       </c>
       <c r="E41">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="F41">
         <v>3</v>
@@ -1680,8 +1849,12 @@
       <c r="G41">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>3.6000000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>47</v>
       </c>
@@ -1695,16 +1868,20 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="F42">
         <v>2.2000000000000002</v>
       </c>
       <c r="G42">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.3</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>48</v>
       </c>
@@ -1726,8 +1903,12 @@
       <c r="G43">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>49</v>
       </c>
@@ -1749,8 +1930,12 @@
       <c r="G44">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
@@ -1764,16 +1949,20 @@
         <v>2.4</v>
       </c>
       <c r="E45">
-        <v>1.8</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="F45">
         <v>1.5</v>
       </c>
       <c r="G45">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.8</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="0"/>
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>51</v>
       </c>
@@ -1787,7 +1976,7 @@
         <v>0.6</v>
       </c>
       <c r="E46">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="F46">
         <v>2.8</v>
@@ -1795,8 +1984,12 @@
       <c r="G46">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <f t="shared" si="0"/>
+        <v>2.8499999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
@@ -1810,16 +2003,20 @@
         <v>3.5</v>
       </c>
       <c r="E47">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="F47">
         <v>2.7</v>
       </c>
       <c r="G47">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.7</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="0"/>
+        <v>3.7249999999999996</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>53</v>
       </c>
@@ -1841,8 +2038,12 @@
       <c r="G48">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48">
+        <f t="shared" si="0"/>
+        <v>3.1250000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>54</v>
       </c>
@@ -1856,16 +2057,20 @@
         <v>2</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="F49">
         <v>1.8</v>
       </c>
       <c r="G49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.1</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="0"/>
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
@@ -1887,8 +2092,12 @@
       <c r="G50">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>56</v>
       </c>
@@ -1910,8 +2119,12 @@
       <c r="G51">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>57</v>
       </c>
@@ -1931,11 +2144,15 @@
         <v>2.4</v>
       </c>
       <c r="G52">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="0"/>
+        <v>2.35</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:G52">
+  <conditionalFormatting sqref="G1:G1048576">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>3</formula>
     </cfRule>
